--- a/symbol_list/Exclude_Symbols.xlsx
+++ b/symbol_list/Exclude_Symbols.xlsx
@@ -1,37 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuxuesong/PycharmProjects/ToolDB/symbol_list/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F84CE4E-A265-E044-8CDA-64915F77D8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>AGN</t>
+  </si>
+  <si>
+    <t>BLDR</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>DJX</t>
+  </si>
+  <si>
+    <t>ELY</t>
+  </si>
+  <si>
+    <t>FSLY</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>IWM</t>
+  </si>
+  <si>
+    <t>LOGI</t>
+  </si>
+  <si>
+    <t>MRVL</t>
+  </si>
+  <si>
+    <t>NDX</t>
+  </si>
+  <si>
+    <t>NVS</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>SBGI</t>
+  </si>
+  <si>
+    <t>SPX</t>
+  </si>
+  <si>
+    <t>TLT</t>
+  </si>
+  <si>
+    <t>TSG</t>
+  </si>
+  <si>
+    <t>UPRO</t>
+  </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>XSP</t>
+  </si>
+  <si>
+    <t>VXX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +142,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,257 +466,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AGN</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BLDR</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DJX</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ELY</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FSLY</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>IWM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LOGI</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MRVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NDX</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NVS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>RUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SBGI</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SPX</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TLT</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TSG</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>UPRO</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>VIX</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>WORK</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>XSP</t>
-        </is>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>